--- a/training_phishing/training_phishing_template.xlsx
+++ b/training_phishing/training_phishing_template.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josht\Work\ita_so_phishing_training\training_phishing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEE7206-0752-47B5-89FA-32E9F7463089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Phishing - Summary" sheetId="2" state="visible" r:id="rId1"/>
-    <sheet name="Phishing - Users Who Clicked" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Training - Summary" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Training - Not Completed" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Phishing - Summary" sheetId="2" r:id="rId1"/>
+    <sheet name="Phishing - Users Who Clicked" sheetId="1" r:id="rId2"/>
+    <sheet name="Training - Summary" sheetId="3" r:id="rId3"/>
+    <sheet name="Training - Not Completed" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -21,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>First Name</t>
   </si>
@@ -83,27 +90,17 @@
     <t>User Progress In Assignment</t>
   </si>
   <si>
-    <t>ITA Training Completion as of …</t>
-  </si>
-  <si>
-    <t>Summary of ... Phishing Exercise Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summary of Q2 2022 Phishing Exercise Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITA Training Completion as of 06/26/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITA Training Completion as of 06/26/2022ss</t>
+    <t>Summary of [season] Phishing Exercise Results</t>
+  </si>
+  <si>
+    <t>ITA Training Completion as of [date]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,22 +114,22 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <b/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <b/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <b/>
     </font>
   </fonts>
   <fills count="6">
@@ -179,45 +176,66 @@
       <left style="medium">
         <color theme="4" tint="-0.249977111117893"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color theme="4" tint="-0.249977111117893"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="-0.249977111117893"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color theme="4" tint="-0.249977111117893"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="-0.249977111117893"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color theme="4" tint="-0.249977111117893"/>
       </left>
+      <right/>
       <top style="medium">
         <color theme="4" tint="-0.249977111117893"/>
       </top>
       <bottom style="thin">
         <color theme="4" tint="-0.249977111117893"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color theme="4" tint="-0.249977111117893"/>
       </right>
@@ -227,37 +245,52 @@
       <bottom style="thin">
         <color theme="4" tint="-0.249977111117893"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color theme="4" tint="-0.249977111117893"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color theme="4" tint="-0.249977111117893"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color theme="4" tint="-0.249977111117893"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color theme="4" tint="-0.249977111117893"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color theme="4" tint="-0.249977111117893"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </top>
       <bottom style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </right>
@@ -267,17 +300,20 @@
       <bottom style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </left>
+      <right/>
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </top>
       <bottom style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -292,6 +328,7 @@
       <bottom style="thin">
         <color theme="4" tint="-0.249977111117893"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -300,6 +337,9 @@
       <right style="medium">
         <color theme="4" tint="-0.249977111117893"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -314,6 +354,7 @@
       <bottom style="medium">
         <color theme="4" tint="-0.249977111117893"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -321,9 +362,9 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -336,15 +377,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,31 +699,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1"/>
-    <row r="3" ht="15" customHeight="1"/>
-    <row r="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -702,7 +741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -710,7 +749,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -718,7 +757,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -726,7 +765,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -734,7 +773,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -742,7 +781,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -750,7 +789,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -765,26 +804,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="7" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="40" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="27.88671875" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="14" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="7" max="7" width="27.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
@@ -817,30 +854,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1"/>
-    <row r="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -860,7 +895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -868,7 +903,7 @@
       <c r="E5" s="11"/>
       <c r="F5" s="19"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -876,7 +911,7 @@
       <c r="E6" s="11"/>
       <c r="F6" s="19"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -884,7 +919,7 @@
       <c r="E7" s="11"/>
       <c r="F7" s="19"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -892,7 +927,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="19"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -900,7 +935,7 @@
       <c r="E9" s="11"/>
       <c r="F9" s="19"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -908,7 +943,7 @@
       <c r="E10" s="11"/>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -923,26 +958,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="7" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="11" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="14" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="40" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="27.88671875" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="14" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="7" max="7" width="27.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>18</v>
       </c>

--- a/training_phishing/training_phishing_template.xlsx
+++ b/training_phishing/training_phishing_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josht\Work\ita_so_phishing_training\training_phishing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEE7206-0752-47B5-89FA-32E9F7463089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C515F9D-FE79-4955-8EFA-741B81140A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -818,7 +818,7 @@
     <col min="5" max="5" width="14.88671875" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="27.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="8" max="8" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -972,7 +972,7 @@
     <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="27.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="8" max="8" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">

--- a/training_phishing/training_phishing_template.xlsx
+++ b/training_phishing/training_phishing_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josht\Work\ita_so_phishing_training\training_phishing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C515F9D-FE79-4955-8EFA-741B81140A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19981F86-430B-4F86-A7DF-D30409892122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +130,13 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -357,10 +364,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -386,9 +394,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -900,7 +911,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -908,7 +919,7 @@
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -916,7 +927,7 @@
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -924,7 +935,7 @@
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -932,7 +943,7 @@
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -940,7 +951,7 @@
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -948,7 +959,7 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="20"/>
     </row>
   </sheetData>
